--- a/etc/doc/항목커스터마이징.xlsx
+++ b/etc/doc/항목커스터마이징.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재가는 정수처리 요망(소숫점자리삭제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,26 +122,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>정상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>비정상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비정상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>값이 '과세', '비과세' 로 나와야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">값이 0으로 되어있음. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>국제표준코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +211,33 @@
   </si>
   <si>
     <t>가장최근에 분배한 분배금과 분배금지급일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재가는 정수처리 요망(소숫점자리삭제)
+-&gt; 반영완료(10.07)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드값
+0:해당없음
+1:비과세
+2:배당소득세(보유기간과세)
+3:증권거래세(회사형ETF)
+4:배당소득세(해외주식투자전용ETF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값이 0으로 되어있음
+-&gt; 16500은 백만단위임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +265,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -307,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +345,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,7 +641,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -652,13 +687,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -667,31 +702,31 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -699,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -714,13 +749,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -729,48 +764,48 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3">
+        <v>33833</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="3">
+        <v>16500</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -778,148 +813,172 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16012</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1">
+        <v>16017</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1">
+        <v>34514</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>34763</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15015</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15023</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="B18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16143</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16499</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1">
+        <v>33835</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1">
+        <v>33836</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
